--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/eenheid/eenheid.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/eenheid/eenheid.xlsx
@@ -397,13 +397,1344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>code</v>
+      </c>
+      <c r="D1" t="str">
+        <v>prefLabel</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C2" t="str">
+        <v>E_96</v>
+      </c>
+      <c r="D2" t="str">
+        <v>mg/kg ds</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/10</v>
+      </c>
+      <c r="B3" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C3" t="str">
+        <v>E_105</v>
+      </c>
+      <c r="D3" t="str">
+        <v>kgN/d</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/11</v>
+      </c>
+      <c r="B4" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C4" t="str">
+        <v>E_106</v>
+      </c>
+      <c r="D4" t="str">
+        <v>gN/d</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/12</v>
+      </c>
+      <c r="B5" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C5" t="str">
+        <v>E_107</v>
+      </c>
+      <c r="D5" t="str">
+        <v>mgN/d</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/13</v>
+      </c>
+      <c r="B6" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C6" t="str">
+        <v>E_108</v>
+      </c>
+      <c r="D6" t="str">
+        <v>tN/jr</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/14</v>
+      </c>
+      <c r="B7" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C7" t="str">
+        <v>E_109</v>
+      </c>
+      <c r="D7" t="str">
+        <v>kgN/jr</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/15</v>
+      </c>
+      <c r="B8" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C8" t="str">
+        <v>E_110</v>
+      </c>
+      <c r="D8" t="str">
+        <v>kgN/u</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/16</v>
+      </c>
+      <c r="B9" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C9" t="str">
+        <v>E_111</v>
+      </c>
+      <c r="D9" t="str">
+        <v>mgN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/17</v>
+      </c>
+      <c r="B10" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C10" t="str">
+        <v>E_112</v>
+      </c>
+      <c r="D10" t="str">
+        <v>gN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/18</v>
+      </c>
+      <c r="B11" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C11" t="str">
+        <v>E_113</v>
+      </c>
+      <c r="D11" t="str">
+        <v>kgN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/19</v>
+      </c>
+      <c r="B12" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C12" t="str">
+        <v>E_114</v>
+      </c>
+      <c r="D12" t="str">
+        <v>gO2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/2</v>
+      </c>
+      <c r="B13" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C13" t="str">
+        <v>E_97</v>
+      </c>
+      <c r="D13" t="str">
+        <v>µg/kg ds</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/20</v>
+      </c>
+      <c r="B14" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C14" t="str">
+        <v>E_115</v>
+      </c>
+      <c r="D14" t="str">
+        <v>kgO2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/21</v>
+      </c>
+      <c r="B15" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C15" t="str">
+        <v>E_116</v>
+      </c>
+      <c r="D15" t="str">
+        <v>gO2/d</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/22</v>
+      </c>
+      <c r="B16" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C16" t="str">
+        <v>E_117</v>
+      </c>
+      <c r="D16" t="str">
+        <v>kgO2/jr</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/23</v>
+      </c>
+      <c r="B17" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C17" t="str">
+        <v>E_118</v>
+      </c>
+      <c r="D17" t="str">
+        <v>kgO2/d</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/24</v>
+      </c>
+      <c r="B18" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C18" t="str">
+        <v>E_119</v>
+      </c>
+      <c r="D18" t="str">
+        <v>gC</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/25</v>
+      </c>
+      <c r="B19" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C19" t="str">
+        <v>E_120</v>
+      </c>
+      <c r="D19" t="str">
+        <v>kgC</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/26</v>
+      </c>
+      <c r="B20" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C20" t="str">
+        <v>E_121</v>
+      </c>
+      <c r="D20" t="str">
+        <v>kgC/d</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/27</v>
+      </c>
+      <c r="B21" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C21" t="str">
+        <v>E_122</v>
+      </c>
+      <c r="D21" t="str">
+        <v>gC/d</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/28</v>
+      </c>
+      <c r="B22" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C22" t="str">
+        <v>E_123</v>
+      </c>
+      <c r="D22" t="str">
+        <v>mgC/kg ds</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/29</v>
+      </c>
+      <c r="B23" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C23" t="str">
+        <v>E_124</v>
+      </c>
+      <c r="D23" t="str">
+        <v>gC/kg ds</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/3</v>
+      </c>
+      <c r="B24" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C24" t="str">
+        <v>E_98</v>
+      </c>
+      <c r="D24" t="str">
+        <v>µg/kg ng</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/30</v>
+      </c>
+      <c r="B25" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C25" t="str">
+        <v>E_125</v>
+      </c>
+      <c r="D25" t="str">
+        <v>mgN/kg ds</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/31</v>
+      </c>
+      <c r="B26" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C26" t="str">
+        <v>E_126</v>
+      </c>
+      <c r="D26" t="str">
+        <v>mgNH4/L</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/32</v>
+      </c>
+      <c r="B27" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C27" t="str">
+        <v>E_127</v>
+      </c>
+      <c r="D27" t="str">
+        <v>mgCl/kg ds</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/33</v>
+      </c>
+      <c r="B28" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C28" t="str">
+        <v>E_128</v>
+      </c>
+      <c r="D28" t="str">
+        <v>mgCl/L</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/34</v>
+      </c>
+      <c r="B29" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C29" t="str">
+        <v>E_129</v>
+      </c>
+      <c r="D29" t="str">
+        <v>µgCl/L</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/35</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C30" t="str">
+        <v>E_130</v>
+      </c>
+      <c r="D30" t="str">
+        <v>mgP/kg ds</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/36</v>
+      </c>
+      <c r="B31" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C31" t="str">
+        <v>E_131</v>
+      </c>
+      <c r="D31" t="str">
+        <v>mgP/L</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/37</v>
+      </c>
+      <c r="B32" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C32" t="str">
+        <v>E_132</v>
+      </c>
+      <c r="D32" t="str">
+        <v>µgP/L</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/38</v>
+      </c>
+      <c r="B33" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C33" t="str">
+        <v>E_133</v>
+      </c>
+      <c r="D33" t="str">
+        <v>µgSn/kg ds</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/39</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C34" t="str">
+        <v>E_134</v>
+      </c>
+      <c r="D34" t="str">
+        <v>mgSn/kg ds</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/4</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C35" t="str">
+        <v>E_99</v>
+      </c>
+      <c r="D35" t="str">
+        <v>g/g ng</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/40</v>
+      </c>
+      <c r="B36" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C36" t="str">
+        <v>E_135</v>
+      </c>
+      <c r="D36" t="str">
+        <v>ngSn/L</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/41</v>
+      </c>
+      <c r="B37" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C37" t="str">
+        <v>E_136</v>
+      </c>
+      <c r="D37" t="str">
+        <v>µgSn/L</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/42</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C38" t="str">
+        <v>E_137</v>
+      </c>
+      <c r="D38" t="str">
+        <v>mgS/L</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/43</v>
+      </c>
+      <c r="B39" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C39" t="str">
+        <v>E_138</v>
+      </c>
+      <c r="D39" t="str">
+        <v>µgS/L</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/44</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C40" t="str">
+        <v>E_139</v>
+      </c>
+      <c r="D40" t="str">
+        <v>mgCaCO3/L</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/45</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C41" t="str">
+        <v>E_140</v>
+      </c>
+      <c r="D41" t="str">
+        <v>mgSiO2/L</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/46</v>
+      </c>
+      <c r="B42" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C42" t="str">
+        <v>E_141</v>
+      </c>
+      <c r="D42" t="str">
+        <v>gP/d</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/47</v>
+      </c>
+      <c r="B43" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C43" t="str">
+        <v>E_142</v>
+      </c>
+      <c r="D43" t="str">
+        <v>kgP/d</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/48</v>
+      </c>
+      <c r="B44" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C44" t="str">
+        <v>E_143</v>
+      </c>
+      <c r="D44" t="str">
+        <v>tP/jr</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/49</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C45" t="str">
+        <v>E_144</v>
+      </c>
+      <c r="D45" t="str">
+        <v>kgP/u</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/5</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C46" t="str">
+        <v>E_100</v>
+      </c>
+      <c r="D46" t="str">
+        <v>mgC/L</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/50</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C47" t="str">
+        <v>E_145</v>
+      </c>
+      <c r="D47" t="str">
+        <v>kgP/jr</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/51</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C48" t="str">
+        <v>E_146</v>
+      </c>
+      <c r="D48" t="str">
+        <v>mgCl/d</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/52</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C49" t="str">
+        <v>E_147</v>
+      </c>
+      <c r="D49" t="str">
+        <v>gCl/d</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/53</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C50" t="str">
+        <v>E_148</v>
+      </c>
+      <c r="D50" t="str">
+        <v>kgCl/d</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/54</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C51" t="str">
+        <v>E_149</v>
+      </c>
+      <c r="D51" t="str">
+        <v>kgCl</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/55</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C52" t="str">
+        <v>E_150</v>
+      </c>
+      <c r="D52" t="str">
+        <v>mgCl</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/56</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C53" t="str">
+        <v>E_151</v>
+      </c>
+      <c r="D53" t="str">
+        <v>kgP</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/57</v>
+      </c>
+      <c r="B54" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C54" t="str">
+        <v>E_152</v>
+      </c>
+      <c r="D54" t="str">
+        <v>gP</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/58</v>
+      </c>
+      <c r="B55" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C55" t="str">
+        <v>E_153</v>
+      </c>
+      <c r="D55" t="str">
+        <v>µgSn</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/59</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C56" t="str">
+        <v>E_154</v>
+      </c>
+      <c r="D56" t="str">
+        <v>17b estradiol eq/L</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/6</v>
+      </c>
+      <c r="B57" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C57" t="str">
+        <v>E_101</v>
+      </c>
+      <c r="D57" t="str">
+        <v>µgC/L</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/60</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C58" t="str">
+        <v>E_155</v>
+      </c>
+      <c r="D58" t="str">
+        <v>dexamethasone eq/L</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/61</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C59" t="str">
+        <v>E_156</v>
+      </c>
+      <c r="D59" t="str">
+        <v>actinomycin D eq/L</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/62</v>
+      </c>
+      <c r="B60" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C60" t="str">
+        <v>E_157</v>
+      </c>
+      <c r="D60" t="str">
+        <v>benzo(a)pyrene eq/L</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/63</v>
+      </c>
+      <c r="B61" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C61" t="str">
+        <v>E_158</v>
+      </c>
+      <c r="D61" t="str">
+        <v>nicardipine eq/L</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/64</v>
+      </c>
+      <c r="B62" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C62" t="str">
+        <v>E_159</v>
+      </c>
+      <c r="D62" t="str">
+        <v>ngTEQ/kg ds</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/65</v>
+      </c>
+      <c r="B63" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C63" t="str">
+        <v>E_160</v>
+      </c>
+      <c r="D63" t="str">
+        <v>µgWHO-TEQ2005/kg ng</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/66</v>
+      </c>
+      <c r="B64" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C64" t="str">
+        <v>E_161</v>
+      </c>
+      <c r="D64" t="str">
+        <v>pg WHO-TEQ2005/g ng</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/67</v>
+      </c>
+      <c r="B65" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C65" t="str">
+        <v>E_162</v>
+      </c>
+      <c r="D65" t="str">
+        <v>%effect</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/68</v>
+      </c>
+      <c r="B66" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C66" t="str">
+        <v>E_163</v>
+      </c>
+      <c r="D66" t="str">
+        <v>%mort</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/69</v>
+      </c>
+      <c r="B67" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C67" t="str">
+        <v>E_164</v>
+      </c>
+      <c r="D67" t="str">
+        <v>mgTEQ/jr</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/7</v>
+      </c>
+      <c r="B68" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C68" t="str">
+        <v>E_102</v>
+      </c>
+      <c r="D68" t="str">
+        <v>mgO2/L</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/70</v>
+      </c>
+      <c r="B69" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C69" t="str">
+        <v>E_165</v>
+      </c>
+      <c r="D69" t="str">
+        <v>µgC9PEO/L</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/71</v>
+      </c>
+      <c r="B70" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C70" t="str">
+        <v>E_166</v>
+      </c>
+      <c r="D70" t="str">
+        <v>µgC13EO/L</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/72</v>
+      </c>
+      <c r="B71" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C71" t="str">
+        <v>E_167</v>
+      </c>
+      <c r="D71" t="str">
+        <v>µg TBySn ac. eq./L</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/73</v>
+      </c>
+      <c r="B72" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C72" t="str">
+        <v>E_168</v>
+      </c>
+      <c r="D72" t="str">
+        <v>µgSn/d</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/74</v>
+      </c>
+      <c r="B73" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C73" t="str">
+        <v>E_169</v>
+      </c>
+      <c r="D73" t="str">
+        <v>gCl</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/75</v>
+      </c>
+      <c r="B74" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C74" t="str">
+        <v>E_170</v>
+      </c>
+      <c r="D74" t="str">
+        <v>kgO2/u</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/76</v>
+      </c>
+      <c r="B75" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C75" t="str">
+        <v>E_171</v>
+      </c>
+      <c r="D75" t="str">
+        <v>mgP/d</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/77</v>
+      </c>
+      <c r="B76" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C76" t="str">
+        <v>E_172</v>
+      </c>
+      <c r="D76" t="str">
+        <v>mg/Nm³</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/78</v>
+      </c>
+      <c r="B77" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C77" t="str">
+        <v>E_173</v>
+      </c>
+      <c r="D77" t="str">
+        <v>pgTEQ/Nm³</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/79</v>
+      </c>
+      <c r="B78" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C78" t="str">
+        <v>E_174</v>
+      </c>
+      <c r="D78" t="str">
+        <v>gTEQ/jr</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/8</v>
+      </c>
+      <c r="B79" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C79" t="str">
+        <v>E_103</v>
+      </c>
+      <c r="D79" t="str">
+        <v>mgN/L</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/80</v>
+      </c>
+      <c r="B80" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C80" t="str">
+        <v>E_175</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Nm³/u</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/81</v>
+      </c>
+      <c r="B81" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C81" t="str">
+        <v>E_176</v>
+      </c>
+      <c r="D81" t="str">
+        <v>µgTEQ/u</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/82</v>
+      </c>
+      <c r="B82" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C82" t="str">
+        <v>E_177</v>
+      </c>
+      <c r="D82" t="str">
+        <v>MWth</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/83</v>
+      </c>
+      <c r="B83" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C83" t="str">
+        <v>E_178</v>
+      </c>
+      <c r="D83" t="str">
+        <v>mgF/L</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/84</v>
+      </c>
+      <c r="B84" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C84" t="str">
+        <v>E_179</v>
+      </c>
+      <c r="D84" t="str">
+        <v>µgF/L</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/85</v>
+      </c>
+      <c r="B85" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C85" t="str">
+        <v>E_180</v>
+      </c>
+      <c r="D85" t="str">
+        <v>mgF</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/86</v>
+      </c>
+      <c r="B86" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C86" t="str">
+        <v>E_181</v>
+      </c>
+      <c r="D86" t="str">
+        <v>kgF/d</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/87</v>
+      </c>
+      <c r="B87" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C87" t="str">
+        <v>E_182</v>
+      </c>
+      <c r="D87" t="str">
+        <v>mgF/d</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/88</v>
+      </c>
+      <c r="B88" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C88" t="str">
+        <v>E_183</v>
+      </c>
+      <c r="D88" t="str">
+        <v>kgF</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/89</v>
+      </c>
+      <c r="B89" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C89" t="str">
+        <v>E_184</v>
+      </c>
+      <c r="D89" t="str">
+        <v>gF</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/9</v>
+      </c>
+      <c r="B90" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C90" t="str">
+        <v>E_104</v>
+      </c>
+      <c r="D90" t="str">
+        <v>µgN/L</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/90</v>
+      </c>
+      <c r="B91" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C91" t="str">
+        <v>E_185</v>
+      </c>
+      <c r="D91" t="str">
+        <v>gF/d</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/91</v>
+      </c>
+      <c r="B92" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C92" t="str">
+        <v>E_188</v>
+      </c>
+      <c r="D92" t="str">
+        <v>ng 17b estrad eq/L</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/92</v>
+      </c>
+      <c r="B93" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C93" t="str">
+        <v>E_189</v>
+      </c>
+      <c r="D93" t="str">
+        <v>ng PFOA eq/L</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/93</v>
+      </c>
+      <c r="B94" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C94" t="str">
+        <v>E_190</v>
+      </c>
+      <c r="D94" t="str">
+        <v>ng PFOA eq/kg ds</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/eenheidsalias/94</v>
+      </c>
+      <c r="B95" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Eenheid</v>
+      </c>
+      <c r="C95" t="str">
+        <v>E_191</v>
+      </c>
+      <c r="D95" t="str">
+        <v>ng TCDD eq/kg ds</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D95"/>
   </ignoredErrors>
 </worksheet>
 </file>